--- a/munkaidő_elszámoló_dokumentáció.xlsx
+++ b/munkaidő_elszámoló_dokumentáció.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balazs\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\springprojekt2025\Spring_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645E4A5-7251-4469-A7C7-A008FED55206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352C370A-FC61-4A82-B7F5-C822F6C58D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="5490" windowWidth="28800" windowHeight="15435" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="784" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konzultációk" sheetId="1" r:id="rId1"/>
     <sheet name="Egyéni munka - Papp J. Balázs" sheetId="2" r:id="rId2"/>
-    <sheet name="Egyéni munka - ZV" sheetId="3" r:id="rId3"/>
+    <sheet name="Egyéni munka - MN" sheetId="3" r:id="rId3"/>
     <sheet name="Egyéni munka - AB" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>1. alkalom</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>törzs felépítése, alap stílus elemek elkésíztése, megadása</t>
+  </si>
+  <si>
+    <t>menüsáv, véleményszekció</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,12 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -371,6 +368,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -675,7 +679,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -683,7 +687,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -702,21 +706,21 @@
       <c r="B5" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -733,9 +737,9 @@
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -744,19 +748,19 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>0.52500000000000002</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>0.55555555555555558</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -770,7 +774,7 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -822,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,20 +838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -868,13 +872,13 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.81458333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.88541666666666663</v>
       </c>
     </row>
@@ -890,10 +894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,20 +908,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -929,6 +933,23 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45768</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45768</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.88194444444444442</v>
       </c>
     </row>
   </sheetData>
@@ -957,20 +978,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
